--- a/classes/1.30.19/theme-rankings-groupings.xlsx
+++ b/classes/1.30.19/theme-rankings-groupings.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonayzman/Documents/Teaching/CSCI 499/Spring 2019/Administration/CSCI499/classes/1.30.19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E95AF6-71D4-FF4D-A9F0-98D1C51B641C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF879A1D-3BC5-8C4D-B71E-8BDD0080AD68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="27480" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="23560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupings" sheetId="1" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Groupings!$A$1:$Q$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Groupings!$A$1:$Q$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Raw Data'!$A$1:$Q$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="43">
   <si>
     <t>Screen name</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Games</t>
+  </si>
+  <si>
+    <t>Roy|12022141</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -698,6 +701,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1128,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1706,7 +1711,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -1917,540 +1922,593 @@
         <v>43495.74732638889</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>43495.746782407405</v>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>43500.745833333334</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="5">
-        <v>43495.746736111112</v>
+        <v>43495.746782407405</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="5">
-        <v>43495.75335648148</v>
+        <v>43495.746736111112</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q20" s="5">
-        <v>43495.747013888889</v>
+        <v>43495.75335648148</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>43495.747013888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="B22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="5">
         <v>43495.747002314813</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>43495.747094907405</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="9">
-        <v>43495.747824074075</v>
+        <v>43495.747094907405</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q24" s="9">
-        <v>43495.766238425924</v>
+        <v>43495.747824074075</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="9">
-        <v>43495.747488425928</v>
+        <v>43495.766238425924</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>43495.747488425928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="9">
+      <c r="B27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="9">
         <v>43495.746759259258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q26" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:Q26">
-      <sortCondition ref="B1:B26"/>
+  <autoFilter ref="A1:Q27" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:Q27">
+      <sortCondition ref="B1:B27"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/classes/1.30.19/theme-rankings-groupings.xlsx
+++ b/classes/1.30.19/theme-rankings-groupings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonayzman/Documents/Teaching/CSCI 499/Spring 2019/Administration/CSCI499/classes/1.30.19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonayzman/Dropbox/Documents/Teaching/CSCI 499/Spring 2019/Administration/CSCI499/classes/1.30.19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF879A1D-3BC5-8C4D-B71E-8BDD0080AD68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A12E6CF-7524-5846-9A05-363D218CE518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="460" windowWidth="23560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23440" yWindow="6360" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="44">
   <si>
     <t>Screen name</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Roy|12022141</t>
+  </si>
+  <si>
+    <t>Dropped</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -703,6 +706,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1058,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2503,6 +2507,11 @@
       </c>
       <c r="Q27" s="9">
         <v>43495.746759259258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
